--- a/GUI + Reviews/202512/Developed Market.xlsx
+++ b/GUI + Reviews/202512/Developed Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FF6B48D6-3CD9-4BD5-9F5A-908EDF595D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1C20FB-0FB2-4567-8F6F-BF78AFFC9750}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{FF6B48D6-3CD9-4BD5-9F5A-908EDF595D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA62BFA-C615-45B9-9999-AB61D0C1F3C5}"/>
   <bookViews>
-    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{78FB7EAF-298D-4E45-8856-FCE1D9CEF782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FB7EAF-298D-4E45-8856-FCE1D9CEF782}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9227" uniqueCount="4661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9227" uniqueCount="4663">
   <si>
     <t>Rank</t>
   </si>
@@ -14019,6 +14019,12 @@
   </si>
   <si>
     <t>XNAS</t>
+  </si>
+  <si>
+    <t>XNMS</t>
+  </si>
+  <si>
+    <t>XNCM</t>
   </si>
 </sst>
 </file>
@@ -14627,8 +14633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FB495-64EC-42C6-8C53-A23FBBE36D5D}">
   <dimension ref="A1:K1801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
-      <selection activeCell="E1473" sqref="E1473"/>
+    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
+      <selection activeCell="E898" sqref="E898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31320,7 +31326,7 @@
         <v>1479</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>121</v>
+        <v>4662</v>
       </c>
       <c r="F477" s="1">
         <v>189471300</v>
@@ -46020,7 +46026,7 @@
         <v>2739</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>121</v>
+        <v>4661</v>
       </c>
       <c r="F897" s="1">
         <v>81356895</v>
@@ -63590,7 +63596,7 @@
         <v>4245</v>
       </c>
       <c r="E1399" s="1" t="s">
-        <v>121</v>
+        <v>4661</v>
       </c>
       <c r="F1399" s="1">
         <v>440318940</v>
@@ -64553,7 +64559,7 @@
         <v>39</v>
       </c>
       <c r="K1426" s="1">
-        <v>0</v>
+        <v>50959180.020000003</v>
       </c>
     </row>
     <row r="1427" spans="1:11" x14ac:dyDescent="0.2">

--- a/GUI + Reviews/202512/Developed Market.xlsx
+++ b/GUI + Reviews/202512/Developed Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FF6B48D6-3CD9-4BD5-9F5A-908EDF595D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA62BFA-C615-45B9-9999-AB61D0C1F3C5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{FF6B48D6-3CD9-4BD5-9F5A-908EDF595D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27E8AE4C-E885-49DC-892E-635D39456813}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FB7EAF-298D-4E45-8856-FCE1D9CEF782}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{78FB7EAF-298D-4E45-8856-FCE1D9CEF782}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14294,9 +14294,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA0C0BDC-4EC2-4A53-9A74-904FA8A949F9}" name="Universe" displayName="Universe" ref="A1:K1801" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K1801" xr:uid="{FA0C0BDC-4EC2-4A53-9A74-904FA8A949F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA0C0BDC-4EC2-4A53-9A74-904FA8A949F9}" name="Universe" displayName="Universe" ref="A1:K1537" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K1537" xr:uid="{FA0C0BDC-4EC2-4A53-9A74-904FA8A949F9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{35E5C551-07B2-478F-A042-CE15692BD488}" name="Rank" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{62998A7B-5F04-4830-A221-8D2C2FF55B09}" name="Ticker" dataDxfId="9"/>
@@ -14631,10 +14635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FB495-64EC-42C6-8C53-A23FBBE36D5D}">
-  <dimension ref="A1:K1801"/>
+  <dimension ref="A1:K1537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
-      <selection activeCell="E898" sqref="E898"/>
+    <sheetView tabSelected="1" topLeftCell="A1518" workbookViewId="0">
+      <selection activeCell="A1536" sqref="A1536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -68447,9246 +68451,6 @@
         <v>137480547.68831599</v>
       </c>
     </row>
-    <row r="1538" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1538" s="1">
-        <v>1537</v>
-      </c>
-      <c r="B1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1538" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1538" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1538" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1539" s="1">
-        <v>1538</v>
-      </c>
-      <c r="B1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1539" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1539" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1539" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1540" s="1">
-        <v>1539</v>
-      </c>
-      <c r="B1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1540" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1540" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1540" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1541" s="1">
-        <v>1540</v>
-      </c>
-      <c r="B1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1541" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1541" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1541" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1542" s="1">
-        <v>1541</v>
-      </c>
-      <c r="B1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1542" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1542" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1542" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1543" s="1">
-        <v>1542</v>
-      </c>
-      <c r="B1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1543" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1543" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1543" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1544" s="1">
-        <v>1543</v>
-      </c>
-      <c r="B1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1544" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1544" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1544" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1545" s="1">
-        <v>1544</v>
-      </c>
-      <c r="B1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1545" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1545" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1545" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1546" s="1">
-        <v>1545</v>
-      </c>
-      <c r="B1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1546" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1546" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1546" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1547" s="1">
-        <v>1546</v>
-      </c>
-      <c r="B1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1547" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1547" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1547" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1548" s="1">
-        <v>1547</v>
-      </c>
-      <c r="B1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1548" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1548" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1548" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1549" s="1">
-        <v>1548</v>
-      </c>
-      <c r="B1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1549" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1549" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1549" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1550" s="1">
-        <v>1549</v>
-      </c>
-      <c r="B1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1550" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1550" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1550" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1551" s="1">
-        <v>1550</v>
-      </c>
-      <c r="B1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1551" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1551" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1551" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1552" s="1">
-        <v>1551</v>
-      </c>
-      <c r="B1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1552" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1553" s="1">
-        <v>1552</v>
-      </c>
-      <c r="B1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1553" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1554" s="1">
-        <v>1553</v>
-      </c>
-      <c r="B1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1554" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1555" s="1">
-        <v>1554</v>
-      </c>
-      <c r="B1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1555" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1556" s="1">
-        <v>1555</v>
-      </c>
-      <c r="B1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1556" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1557" s="1">
-        <v>1556</v>
-      </c>
-      <c r="B1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1557" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1558" s="1">
-        <v>1557</v>
-      </c>
-      <c r="B1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1558" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1559" s="1">
-        <v>1558</v>
-      </c>
-      <c r="B1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1559" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1560" s="1">
-        <v>1559</v>
-      </c>
-      <c r="B1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1560" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1561" s="1">
-        <v>1560</v>
-      </c>
-      <c r="B1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1561" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1562" s="1">
-        <v>1561</v>
-      </c>
-      <c r="B1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1562" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1563" s="1">
-        <v>1562</v>
-      </c>
-      <c r="B1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1563" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1564" s="1">
-        <v>1563</v>
-      </c>
-      <c r="B1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1564" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1565" s="1">
-        <v>1564</v>
-      </c>
-      <c r="B1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1565" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1566" s="1">
-        <v>1565</v>
-      </c>
-      <c r="B1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1566" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1567" s="1">
-        <v>1566</v>
-      </c>
-      <c r="B1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1567" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1568" s="1">
-        <v>1567</v>
-      </c>
-      <c r="B1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1568" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1569" s="1">
-        <v>1568</v>
-      </c>
-      <c r="B1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1569" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1570" s="1">
-        <v>1569</v>
-      </c>
-      <c r="B1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1570" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1571" s="1">
-        <v>1570</v>
-      </c>
-      <c r="B1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1571" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1572" s="1">
-        <v>1571</v>
-      </c>
-      <c r="B1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1572" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1573" s="1">
-        <v>1572</v>
-      </c>
-      <c r="B1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1573" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1574" s="1">
-        <v>1573</v>
-      </c>
-      <c r="B1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1574" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1575" s="1">
-        <v>1574</v>
-      </c>
-      <c r="B1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1575" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1576" s="1">
-        <v>1575</v>
-      </c>
-      <c r="B1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1576" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1577" s="1">
-        <v>1576</v>
-      </c>
-      <c r="B1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1577" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1578" s="1">
-        <v>1577</v>
-      </c>
-      <c r="B1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1578" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1579" s="1">
-        <v>1578</v>
-      </c>
-      <c r="B1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1579" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1580" s="1">
-        <v>1579</v>
-      </c>
-      <c r="B1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1580" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1581" s="1">
-        <v>1580</v>
-      </c>
-      <c r="B1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1581" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1582" s="1">
-        <v>1581</v>
-      </c>
-      <c r="B1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1582" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1583" s="1">
-        <v>1582</v>
-      </c>
-      <c r="B1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1583" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1584" s="1">
-        <v>1583</v>
-      </c>
-      <c r="B1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1584" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1585" s="1">
-        <v>1584</v>
-      </c>
-      <c r="B1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1585" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1586" s="1">
-        <v>1585</v>
-      </c>
-      <c r="B1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1586" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1587" s="1">
-        <v>1586</v>
-      </c>
-      <c r="B1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1587" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1588" s="1">
-        <v>1587</v>
-      </c>
-      <c r="B1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1588" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1589" s="1">
-        <v>1588</v>
-      </c>
-      <c r="B1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1589" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1590" s="1">
-        <v>1589</v>
-      </c>
-      <c r="B1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1590" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1591" s="1">
-        <v>1590</v>
-      </c>
-      <c r="B1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1591" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1592" s="1">
-        <v>1591</v>
-      </c>
-      <c r="B1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1592" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1593" s="1">
-        <v>1592</v>
-      </c>
-      <c r="B1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1593" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1594" s="1">
-        <v>1593</v>
-      </c>
-      <c r="B1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1594" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1595" s="1">
-        <v>1594</v>
-      </c>
-      <c r="B1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1595" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1596" s="1">
-        <v>1595</v>
-      </c>
-      <c r="B1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1596" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1597" s="1">
-        <v>1596</v>
-      </c>
-      <c r="B1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1597" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1598" s="1">
-        <v>1597</v>
-      </c>
-      <c r="B1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1598" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1599" s="1">
-        <v>1598</v>
-      </c>
-      <c r="B1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1599" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1600" s="1">
-        <v>1599</v>
-      </c>
-      <c r="B1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1600" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1601" s="1">
-        <v>1600</v>
-      </c>
-      <c r="B1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1601" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1602" s="1">
-        <v>1601</v>
-      </c>
-      <c r="B1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1602" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1603" s="1">
-        <v>1602</v>
-      </c>
-      <c r="B1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1603" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1604" s="1">
-        <v>1603</v>
-      </c>
-      <c r="B1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1604" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1605" s="1">
-        <v>1604</v>
-      </c>
-      <c r="B1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1605" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1606" s="1">
-        <v>1605</v>
-      </c>
-      <c r="B1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1606" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1607" s="1">
-        <v>1606</v>
-      </c>
-      <c r="B1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1607" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1608" s="1">
-        <v>1607</v>
-      </c>
-      <c r="B1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1608" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1609" s="1">
-        <v>1608</v>
-      </c>
-      <c r="B1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1609" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1610" s="1">
-        <v>1609</v>
-      </c>
-      <c r="B1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1610" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1611" s="1">
-        <v>1610</v>
-      </c>
-      <c r="B1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1611" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1612" s="1">
-        <v>1611</v>
-      </c>
-      <c r="B1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1612" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1613" s="1">
-        <v>1612</v>
-      </c>
-      <c r="B1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1613" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1614" s="1">
-        <v>1613</v>
-      </c>
-      <c r="B1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1614" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1615" s="1">
-        <v>1614</v>
-      </c>
-      <c r="B1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1615" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1616" s="1">
-        <v>1615</v>
-      </c>
-      <c r="B1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1616" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1617" s="1">
-        <v>1616</v>
-      </c>
-      <c r="B1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1617" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1618" s="1">
-        <v>1617</v>
-      </c>
-      <c r="B1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1618" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1619" s="1">
-        <v>1618</v>
-      </c>
-      <c r="B1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1619" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1620" s="1">
-        <v>1619</v>
-      </c>
-      <c r="B1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1620" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1621" s="1">
-        <v>1620</v>
-      </c>
-      <c r="B1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1621" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1622" s="1">
-        <v>1621</v>
-      </c>
-      <c r="B1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1622" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1623" s="1">
-        <v>1622</v>
-      </c>
-      <c r="B1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1623" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1624" s="1">
-        <v>1623</v>
-      </c>
-      <c r="B1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1624" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1625" s="1">
-        <v>1624</v>
-      </c>
-      <c r="B1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1625" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1626" s="1">
-        <v>1625</v>
-      </c>
-      <c r="B1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1626" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1627" s="1">
-        <v>1626</v>
-      </c>
-      <c r="B1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1627" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1628" s="1">
-        <v>1627</v>
-      </c>
-      <c r="B1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1628" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1629" s="1">
-        <v>1628</v>
-      </c>
-      <c r="B1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1629" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1630" s="1">
-        <v>1629</v>
-      </c>
-      <c r="B1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1630" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1631" s="1">
-        <v>1630</v>
-      </c>
-      <c r="B1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1631" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1632" s="1">
-        <v>1631</v>
-      </c>
-      <c r="B1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1632" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1633" s="1">
-        <v>1632</v>
-      </c>
-      <c r="B1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1633" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1634" s="1">
-        <v>1633</v>
-      </c>
-      <c r="B1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1634" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1635" s="1">
-        <v>1634</v>
-      </c>
-      <c r="B1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1635" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1636" s="1">
-        <v>1635</v>
-      </c>
-      <c r="B1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1636" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1637" s="1">
-        <v>1636</v>
-      </c>
-      <c r="B1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1637" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1638" s="1">
-        <v>1637</v>
-      </c>
-      <c r="B1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1638" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1639" s="1">
-        <v>1638</v>
-      </c>
-      <c r="B1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1639" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1640" s="1">
-        <v>1639</v>
-      </c>
-      <c r="B1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1640" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1641" s="1">
-        <v>1640</v>
-      </c>
-      <c r="B1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1641" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1642" s="1">
-        <v>1641</v>
-      </c>
-      <c r="B1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1642" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1643" s="1">
-        <v>1642</v>
-      </c>
-      <c r="B1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1643" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1644" s="1">
-        <v>1643</v>
-      </c>
-      <c r="B1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1644" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1645" s="1">
-        <v>1644</v>
-      </c>
-      <c r="B1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1645" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1646" s="1">
-        <v>1645</v>
-      </c>
-      <c r="B1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1646" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1647" s="1">
-        <v>1646</v>
-      </c>
-      <c r="B1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1647" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1648" s="1">
-        <v>1647</v>
-      </c>
-      <c r="B1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1648" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1649" s="1">
-        <v>1648</v>
-      </c>
-      <c r="B1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1649" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1650" s="1">
-        <v>1649</v>
-      </c>
-      <c r="B1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1650" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1651" s="1">
-        <v>1650</v>
-      </c>
-      <c r="B1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1651" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1652" s="1">
-        <v>1651</v>
-      </c>
-      <c r="B1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1652" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1653" s="1">
-        <v>1652</v>
-      </c>
-      <c r="B1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1653" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1654" s="1">
-        <v>1653</v>
-      </c>
-      <c r="B1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1654" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1655" s="1">
-        <v>1654</v>
-      </c>
-      <c r="B1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1655" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1656" s="1">
-        <v>1655</v>
-      </c>
-      <c r="B1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1656" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1657" s="1">
-        <v>1656</v>
-      </c>
-      <c r="B1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1657" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1658" s="1">
-        <v>1657</v>
-      </c>
-      <c r="B1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1658" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1659" s="1">
-        <v>1658</v>
-      </c>
-      <c r="B1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1659" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1660" s="1">
-        <v>1659</v>
-      </c>
-      <c r="B1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1660" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1661" s="1">
-        <v>1660</v>
-      </c>
-      <c r="B1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1661" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1662" s="1">
-        <v>1661</v>
-      </c>
-      <c r="B1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1662" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1663" s="1">
-        <v>1662</v>
-      </c>
-      <c r="B1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1663" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1664" s="1">
-        <v>1663</v>
-      </c>
-      <c r="B1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1664" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1665" s="1">
-        <v>1664</v>
-      </c>
-      <c r="B1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1665" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1666" s="1">
-        <v>1665</v>
-      </c>
-      <c r="B1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1666" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1667" s="1">
-        <v>1666</v>
-      </c>
-      <c r="B1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1667" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1668" s="1">
-        <v>1667</v>
-      </c>
-      <c r="B1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1668" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1669" s="1">
-        <v>1668</v>
-      </c>
-      <c r="B1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1669" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1670" s="1">
-        <v>1669</v>
-      </c>
-      <c r="B1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1670" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1671" s="1">
-        <v>1670</v>
-      </c>
-      <c r="B1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1671" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1672" s="1">
-        <v>1671</v>
-      </c>
-      <c r="B1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1672" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1673" s="1">
-        <v>1672</v>
-      </c>
-      <c r="B1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1673" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1674" s="1">
-        <v>1673</v>
-      </c>
-      <c r="B1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1674" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1675" s="1">
-        <v>1674</v>
-      </c>
-      <c r="B1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1675" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1676" s="1">
-        <v>1675</v>
-      </c>
-      <c r="B1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1676" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1677" s="1">
-        <v>1676</v>
-      </c>
-      <c r="B1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1677" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1678" s="1">
-        <v>1677</v>
-      </c>
-      <c r="B1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1678" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1679" s="1">
-        <v>1678</v>
-      </c>
-      <c r="B1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1679" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1680" s="1">
-        <v>1679</v>
-      </c>
-      <c r="B1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1680" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1681" s="1">
-        <v>1680</v>
-      </c>
-      <c r="B1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1681" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1682" s="1">
-        <v>1681</v>
-      </c>
-      <c r="B1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1682" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1683" s="1">
-        <v>1682</v>
-      </c>
-      <c r="B1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1683" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1684" s="1">
-        <v>1683</v>
-      </c>
-      <c r="B1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1684" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1685" s="1">
-        <v>1684</v>
-      </c>
-      <c r="B1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1685" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1686" s="1">
-        <v>1685</v>
-      </c>
-      <c r="B1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1686" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1687" s="1">
-        <v>1686</v>
-      </c>
-      <c r="B1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1687" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1688" s="1">
-        <v>1687</v>
-      </c>
-      <c r="B1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1688" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1689" s="1">
-        <v>1688</v>
-      </c>
-      <c r="B1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1689" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1690" s="1">
-        <v>1689</v>
-      </c>
-      <c r="B1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1690" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1691" s="1">
-        <v>1690</v>
-      </c>
-      <c r="B1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1691" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1692" s="1">
-        <v>1691</v>
-      </c>
-      <c r="B1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1692" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1693" s="1">
-        <v>1692</v>
-      </c>
-      <c r="B1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1693" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1694" s="1">
-        <v>1693</v>
-      </c>
-      <c r="B1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1694" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1695" s="1">
-        <v>1694</v>
-      </c>
-      <c r="B1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1695" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1696" s="1">
-        <v>1695</v>
-      </c>
-      <c r="B1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1696" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1697" s="1">
-        <v>1696</v>
-      </c>
-      <c r="B1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1697" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1698" s="1">
-        <v>1697</v>
-      </c>
-      <c r="B1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1698" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1699" s="1">
-        <v>1698</v>
-      </c>
-      <c r="B1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1699" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1700" s="1">
-        <v>1699</v>
-      </c>
-      <c r="B1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1700" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1701" s="1">
-        <v>1700</v>
-      </c>
-      <c r="B1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1701" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1702" s="1">
-        <v>1701</v>
-      </c>
-      <c r="B1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1702" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1703" s="1">
-        <v>1702</v>
-      </c>
-      <c r="B1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1703" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1704" s="1">
-        <v>1703</v>
-      </c>
-      <c r="B1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1704" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1705" s="1">
-        <v>1704</v>
-      </c>
-      <c r="B1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1705" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1706" s="1">
-        <v>1705</v>
-      </c>
-      <c r="B1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1706" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1707" s="1">
-        <v>1706</v>
-      </c>
-      <c r="B1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1707" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1708" s="1">
-        <v>1707</v>
-      </c>
-      <c r="B1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1708" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1709" s="1">
-        <v>1708</v>
-      </c>
-      <c r="B1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1709" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1710" s="1">
-        <v>1709</v>
-      </c>
-      <c r="B1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1710" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1711" s="1">
-        <v>1710</v>
-      </c>
-      <c r="B1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1711" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1712" s="1">
-        <v>1711</v>
-      </c>
-      <c r="B1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1712" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1713" s="1">
-        <v>1712</v>
-      </c>
-      <c r="B1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1713" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1714" s="1">
-        <v>1713</v>
-      </c>
-      <c r="B1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1714" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1715" s="1">
-        <v>1714</v>
-      </c>
-      <c r="B1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1715" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1716" s="1">
-        <v>1715</v>
-      </c>
-      <c r="B1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1716" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1717" s="1">
-        <v>1716</v>
-      </c>
-      <c r="B1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1717" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1718" s="1">
-        <v>1717</v>
-      </c>
-      <c r="B1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1718" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1719" s="1">
-        <v>1718</v>
-      </c>
-      <c r="B1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1719" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1720" s="1">
-        <v>1719</v>
-      </c>
-      <c r="B1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1720" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1721" s="1">
-        <v>1720</v>
-      </c>
-      <c r="B1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1721" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1722" s="1">
-        <v>1721</v>
-      </c>
-      <c r="B1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1722" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1723" s="1">
-        <v>1722</v>
-      </c>
-      <c r="B1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1724" s="1">
-        <v>1723</v>
-      </c>
-      <c r="B1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1724" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1725" s="1">
-        <v>1724</v>
-      </c>
-      <c r="B1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1725" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1726" s="1">
-        <v>1725</v>
-      </c>
-      <c r="B1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1726" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1727" s="1">
-        <v>1726</v>
-      </c>
-      <c r="B1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1727" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1728" s="1">
-        <v>1727</v>
-      </c>
-      <c r="B1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1728" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1729" s="1">
-        <v>1728</v>
-      </c>
-      <c r="B1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1729" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1730" s="1">
-        <v>1729</v>
-      </c>
-      <c r="B1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1730" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1731" s="1">
-        <v>1730</v>
-      </c>
-      <c r="B1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1731" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1732" s="1">
-        <v>1731</v>
-      </c>
-      <c r="B1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1732" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1733" s="1">
-        <v>1732</v>
-      </c>
-      <c r="B1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1733" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1734" s="1">
-        <v>1733</v>
-      </c>
-      <c r="B1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1734" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1735" s="1">
-        <v>1734</v>
-      </c>
-      <c r="B1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1735" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1736" s="1">
-        <v>1735</v>
-      </c>
-      <c r="B1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1736" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1737" s="1">
-        <v>1736</v>
-      </c>
-      <c r="B1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1737" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1738" s="1">
-        <v>1737</v>
-      </c>
-      <c r="B1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1738" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1739" s="1">
-        <v>1738</v>
-      </c>
-      <c r="B1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1739" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1740" s="1">
-        <v>1739</v>
-      </c>
-      <c r="B1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1740" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1741" s="1">
-        <v>1740</v>
-      </c>
-      <c r="B1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1741" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1742" s="1">
-        <v>1741</v>
-      </c>
-      <c r="B1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1742" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1743" s="1">
-        <v>1742</v>
-      </c>
-      <c r="B1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1743" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1744" s="1">
-        <v>1743</v>
-      </c>
-      <c r="B1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1744" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1745" s="1">
-        <v>1744</v>
-      </c>
-      <c r="B1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1745" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1746" s="1">
-        <v>1745</v>
-      </c>
-      <c r="B1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1746" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1747" s="1">
-        <v>1746</v>
-      </c>
-      <c r="B1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1747" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1748" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1748" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1749" s="1">
-        <v>1748</v>
-      </c>
-      <c r="B1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1749" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1750" s="1">
-        <v>1749</v>
-      </c>
-      <c r="B1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1750" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1751" s="1">
-        <v>1750</v>
-      </c>
-      <c r="B1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1751" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1752" s="1">
-        <v>1751</v>
-      </c>
-      <c r="B1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1752" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1753" s="1">
-        <v>1752</v>
-      </c>
-      <c r="B1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1754" s="1">
-        <v>1753</v>
-      </c>
-      <c r="B1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1755" s="1">
-        <v>1754</v>
-      </c>
-      <c r="B1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1755" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1756" s="1">
-        <v>1755</v>
-      </c>
-      <c r="B1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1756" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1757" s="1">
-        <v>1756</v>
-      </c>
-      <c r="B1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1757" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1758" s="1">
-        <v>1757</v>
-      </c>
-      <c r="B1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1758" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1759" s="1">
-        <v>1758</v>
-      </c>
-      <c r="B1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1759" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1760" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1760" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1761" s="1">
-        <v>1760</v>
-      </c>
-      <c r="B1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1761" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1762" s="1">
-        <v>1761</v>
-      </c>
-      <c r="B1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1762" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1763" s="1">
-        <v>1762</v>
-      </c>
-      <c r="B1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1763" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1764" s="1">
-        <v>1763</v>
-      </c>
-      <c r="B1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1764" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1765" s="1">
-        <v>1764</v>
-      </c>
-      <c r="B1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1765" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1766" s="1">
-        <v>1765</v>
-      </c>
-      <c r="B1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1766" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1767" s="1">
-        <v>1766</v>
-      </c>
-      <c r="B1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1768" s="1">
-        <v>1767</v>
-      </c>
-      <c r="B1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1768" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1769" s="1">
-        <v>1768</v>
-      </c>
-      <c r="B1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1769" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1770" s="1">
-        <v>1769</v>
-      </c>
-      <c r="B1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1770" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1771" s="1">
-        <v>1770</v>
-      </c>
-      <c r="B1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1771" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1772" s="1">
-        <v>1771</v>
-      </c>
-      <c r="B1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1772" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1773" s="1">
-        <v>1772</v>
-      </c>
-      <c r="B1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1773" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1774" s="1">
-        <v>1773</v>
-      </c>
-      <c r="B1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1774" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1775" s="1">
-        <v>1774</v>
-      </c>
-      <c r="B1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1775" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1776" s="1">
-        <v>1775</v>
-      </c>
-      <c r="B1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1776" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1777" s="1">
-        <v>1776</v>
-      </c>
-      <c r="B1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1777" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1778" s="1">
-        <v>1777</v>
-      </c>
-      <c r="B1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1778" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1779" s="1">
-        <v>1778</v>
-      </c>
-      <c r="B1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1779" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1780" s="1">
-        <v>1779</v>
-      </c>
-      <c r="B1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1780" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1781" s="1">
-        <v>1780</v>
-      </c>
-      <c r="B1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1781" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1782" s="1">
-        <v>1781</v>
-      </c>
-      <c r="B1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1782" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1783" s="1">
-        <v>1782</v>
-      </c>
-      <c r="B1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1784" s="1">
-        <v>1783</v>
-      </c>
-      <c r="B1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1785" s="1">
-        <v>1784</v>
-      </c>
-      <c r="B1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1786" s="1">
-        <v>1785</v>
-      </c>
-      <c r="B1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1786" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1787" s="1">
-        <v>1786</v>
-      </c>
-      <c r="B1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1787" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1788" s="1">
-        <v>1787</v>
-      </c>
-      <c r="B1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1788" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1789" s="1">
-        <v>1788</v>
-      </c>
-      <c r="B1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1789" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1790" s="1">
-        <v>1789</v>
-      </c>
-      <c r="B1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1790" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1791" s="1">
-        <v>1790</v>
-      </c>
-      <c r="B1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1791" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1792" s="1">
-        <v>1791</v>
-      </c>
-      <c r="B1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1792" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1793" s="1">
-        <v>1792</v>
-      </c>
-      <c r="B1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1793" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1794" s="1">
-        <v>1793</v>
-      </c>
-      <c r="B1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1794" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1795" s="1">
-        <v>1794</v>
-      </c>
-      <c r="B1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1795" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1796" s="1">
-        <v>1795</v>
-      </c>
-      <c r="B1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1796" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1797" s="1">
-        <v>1796</v>
-      </c>
-      <c r="B1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1797" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1798" s="1">
-        <v>1797</v>
-      </c>
-      <c r="B1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1798" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1799" s="1">
-        <v>1798</v>
-      </c>
-      <c r="B1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1799" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1800" s="1">
-        <v>1799</v>
-      </c>
-      <c r="B1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1800" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1801" s="1">
-        <v>1800</v>
-      </c>
-      <c r="B1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K1801" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/GUI + Reviews/202512/Developed Market.xlsx
+++ b/GUI + Reviews/202512/Developed Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D503818E-1B60-45D9-970D-9BEC219AC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D503818E-1B60-45D9-970D-9BEC219AC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2494B4E6-A221-48EE-8E54-823A2B027EC5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5A833336-74F3-4282-AA56-06FEBA375784}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5A833336-74F3-4282-AA56-06FEBA375784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14295,20 +14295,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14098694-52FD-4E33-9ABD-FC70E09F5F9E}" name="Universe" displayName="Universe" ref="A1:K1801" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14098694-52FD-4E33-9ABD-FC70E09F5F9E}" name="Universe" displayName="Universe" ref="A1:K1801" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K1801" xr:uid="{14098694-52FD-4E33-9ABD-FC70E09F5F9E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CFB3C9D6-1DE6-4E4D-854A-DFFA6C6A4E6F}" name="Rank" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{22DA294F-95AB-4307-B7FD-73EBAC7F6EF9}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8CFFCC8C-1003-4180-A56E-7ABB2BCA8603}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{34C78790-2CE9-496D-8DF0-DE032A5D5C18}" name="ISIN" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{17264079-E2E4-4D85-94AA-7E35804E9940}" name="MIC" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{ECCE2221-3DC0-4B96-A738-156BEBC316C1}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{59AFD3EA-12CA-43C7-82EF-B6A281BC51A3}" name="Price (EUR) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{178CD7DA-992E-48BF-84B3-3D0109654F60}" name="Currency (Local)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{4F1E1E7D-60C9-4C2A-9398-8C5097CFE74C}" name="Mcap in EUR" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{54C74F0E-1A13-4FC9-8DD8-E7F6F03D6308}" name="index" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{1A494A0A-0294-4A44-B890-1E1A944FF817}" name="3 months ADTV" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CFB3C9D6-1DE6-4E4D-854A-DFFA6C6A4E6F}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{22DA294F-95AB-4307-B7FD-73EBAC7F6EF9}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8CFFCC8C-1003-4180-A56E-7ABB2BCA8603}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{34C78790-2CE9-496D-8DF0-DE032A5D5C18}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{17264079-E2E4-4D85-94AA-7E35804E9940}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{ECCE2221-3DC0-4B96-A738-156BEBC316C1}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{59AFD3EA-12CA-43C7-82EF-B6A281BC51A3}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{178CD7DA-992E-48BF-84B3-3D0109654F60}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{4F1E1E7D-60C9-4C2A-9398-8C5097CFE74C}" name="Mcap in EUR" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{54C74F0E-1A13-4FC9-8DD8-E7F6F03D6308}" name="index" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{1A494A0A-0294-4A44-B890-1E1A944FF817}" name="3 months ADTV" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14633,7 +14633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12ED06-37CF-46ED-9A79-DF1CDF88EC2B}">
   <dimension ref="A1:K1801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
+      <selection activeCell="E1422" sqref="E1422"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -64542,7 +64544,7 @@
         <v>53</v>
       </c>
       <c r="F1426" s="1">
-        <v>2637743772</v>
+        <v>2344661130</v>
       </c>
       <c r="G1426" s="1">
         <v>49.238591399999997</v>
